--- a/dup/dup_Restoran.xlsx
+++ b/dup/dup_Restoran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Restoran+Bantul/@-7.8053355,110.3375984,13z/data=!4m2!2m1!6e5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>0823-2499-6772</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.841438</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.841438</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.325528</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ChampaJogja/@-7.8779498,110.2624031,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af900370b8353:0x4fac56e929f739d6!8m2!3d-7.8414375!4d110.3255278!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11w1kk59th?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -571,25 +564,24 @@
           <t>0823-2499-6772</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.841438</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.841438</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.325528</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ChampaJogja/@-7.8779498,110.2624031,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af900370b8353:0x4fac56e929f739d6!8m2!3d-7.8414375!4d110.3255278!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11w1kk59th?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -612,25 +604,24 @@
           <t>0823-2499-6772</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.883457</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.883457</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.331689</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Makan+Ala+Restoran+%22Pak+Man%22/@-7.8779498,110.2624031,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7a55ff6e450f1f:0x32aefbd46165767e!8m2!3d-7.8834569!4d110.3316885!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11c6vl_vbh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Makan+Ala+Restoran+%22Pak+Man%22/@-7.8779498,110.2624031,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7a55ff6e450f1f:0x32aefbd46165767e!8m2!3d-7.8834569!4d110.3316885!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgESc2VhZm9vZF9yZXN0YXVyYW504AEA!16s%2Fg%2F11c6vl_vbh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -653,25 +644,24 @@
           <t>0812-1582-0273</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>-7.878399</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.878399</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.334377</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Morgans+Kebab+Bantul/@-7.8779498,110.2624031,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7a576a5716b453:0xcaf5d9e02997053d!8m2!3d-7.8783994!4d110.3343765!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEKa2ViYWJfc2hvcOABAA!16s%2Fg%2F11r_k5tb4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Morgans+Kebab+Bantul/@-7.8779498,110.2624031,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7a576a5716b453:0xcaf5d9e02997053d!8m2!3d-7.8783994!4d110.3343765!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEKa2ViYWJfc2hvcOABAA!16s%2Fg%2F11r_k5tb4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -694,25 +684,24 @@
           <t>0812-1582-0273</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>-7.871486</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.871486</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.387425</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sate+Klathak+Pak+Pong/@-7.8714862,110.3153271,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7a56854a9b3e95:0xdbe6f91fd89db72e!8m2!3d-7.8714862!4d110.3874249!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11bzzpmqjq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sate+Klathak+Pak+Pong/@-7.8714862,110.3153271,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7a56854a9b3e95:0xdbe6f91fd89db72e!8m2!3d-7.8714862!4d110.3874249!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11bzzpmqjq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>11 jam lalu</t>
         </is>
@@ -731,25 +720,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.8</v>
+        <v>-7.874742</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.874742</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.327017</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+bu+uuk%EA%A7%8B%EA%A6%AE%EA%A6%AB%EA%A6%B8%EA%A6%81%EA%A6%A7%EA%A6%B8%EA%A6%88%EA%A6%88%EA%A6%8F%EA%A7%80/@-7.8732558,110.2639094,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af8a965a9c805:0xc17505aaf54c0d6d!8m2!3d-7.8747423!4d110.3270169!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11gbkx96fs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+bu+uuk%EA%A7%8B%EA%A6%AE%EA%A6%AB%EA%A6%B8%EA%A6%81%EA%A6%A7%EA%A6%B8%EA%A6%88%EA%A6%88%EA%A6%8F%EA%A7%80/@-7.8732558,110.2639094,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af8a965a9c805:0xc17505aaf54c0d6d!8m2!3d-7.8747423!4d110.3270169!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11gbkx96fs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -772,25 +760,24 @@
           <t>0878-3990-2785</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.4</v>
+        <v>-7.877372</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.877372</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.324738</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kedai+Sambal+Joss/@-7.8897682,110.2598079,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af8ac784b2a63:0xaca4cfc77e4b8ad6!8m2!3d-7.8773717!4d110.3247384!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11c32h9g87?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kedai+Sambal+Joss/@-7.8897682,110.2598079,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af8ac784b2a63:0xaca4cfc77e4b8ad6!8m2!3d-7.8773717!4d110.3247384!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11c32h9g87?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -817,25 +804,24 @@
           <t>0838-6200-7200</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>-7.885182</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.885182</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.328697</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Najib+Chicken+Pasar+Bantul/@-7.8897682,110.2598079,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7affed6f3390e1:0x364a2a9335d6ad83!8m2!3d-7.8851823!4d110.3286965!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEUZmFzdF9mb29kX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11srl89qcq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Najib+Chicken+Pasar+Bantul/@-7.8897682,110.2598079,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7affed6f3390e1:0x364a2a9335d6ad83!8m2!3d-7.8851823!4d110.3286965!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEUZmFzdF9mb29kX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11srl89qcq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -858,25 +844,24 @@
           <t>0856-0636-9839</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.877736</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.877736</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.326453</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Lesehan+ALYAA/@-7.8771624,110.2511757,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af9cda3162d0f:0xc99417005fbfb676!8m2!3d-7.8777358!4d110.3264526!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEVcGVjZWxfbGVsZV9yZXN0YXVyYW504AEA!16s%2Fg%2F11s8h0qvjt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Lesehan+ALYAA/@-7.8771624,110.2511757,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af9cda3162d0f:0xc99417005fbfb676!8m2!3d-7.8777358!4d110.3264526!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEVcGVjZWxfbGVsZV9yZXN0YXVyYW504AEA!16s%2Fg%2F11s8h0qvjt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -899,25 +884,24 @@
           <t>0856-0636-9839</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.88538</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.88538</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.329835</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sate+kambing+muda+Pojok+pasar+Bantul/@-7.8771624,110.2511757,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7afffed4af9fb1:0x79a04e7439b0c706!8m2!3d-7.8853796!4d110.3298346!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11lgjr1nh3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sate+kambing+muda+Pojok+pasar+Bantul/@-7.8771624,110.2511757,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7afffed4af9fb1:0x79a04e7439b0c706!8m2!3d-7.8853796!4d110.3298346!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11lgjr1nh3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -936,25 +920,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-7.884987</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.884987</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.32842</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Angkringan+Bubur+Sore+Pakdhe+Parman+Bantul/@-7.8771624,110.2511757,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7aff9cf0ed905b:0xe43dfcde9be4aa40!8m2!3d-7.8849866!4d110.3284203!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgETcG9ycmlkZ2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F11frj99w23?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -973,25 +956,24 @@
           <t>0821-4274-0391</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>-7.873013</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.873013</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.327653</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sugih+Waras/@-7.8771624,110.2511757,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af9f68eea3d7d:0x4883199374f2e8db!8m2!3d-7.8730126!4d110.3276528!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11jg5qkzzc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sugih+Waras/@-7.8771624,110.2511757,13z/data=!4m11!1m3!2m2!1sRestoran+Bantul!6e5!3m6!1s0x2e7af9f68eea3d7d:0x4883199374f2e8db!8m2!3d-7.8730126!4d110.3276528!15sCg9SZXN0b3JhbiBCYW50dWxaESIPcmVzdG9yYW4gYmFudHVskgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11jg5qkzzc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1009,16 +991,15 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Restoran+Gunungkidul/@-7.8053056,110.2139841,11z/data=!4m2!2m1!6e5?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1032,16 +1013,15 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SalSari+Resto+%26+Coffee+%EF%B8%8F+%EF%B8%8F+%EF%B8%8F+%EF%B8%8F+%EF%B8%8F/@-7.8053056,110.2139841,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a4d78e231c183:0xa0dfd27e5812fb9d!8m2!3d-7.9391306!4d110.5763068!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11sh5yt7hh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1060,25 +1040,24 @@
           <t>0813-9396-9959</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>-7.825296</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.825296</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.455962</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sego+Berkat+Klenggotan+-+Khas+Gunungkidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a512f656a970b:0xd45fc3d5f53af712!8m2!3d-7.8252963!4d110.4559618!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11lgsj_x9h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sego+Berkat+Klenggotan+-+Khas+Gunungkidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a512f656a970b:0xd45fc3d5f53af712!8m2!3d-7.8252963!4d110.4559618!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11lgsj_x9h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1101,25 +1080,24 @@
           <t>0813-9396-9959</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>-7.818117</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.818117</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.416547</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ayam+Goreng+Gunung+Kidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a5737232a0827:0x361665275e136806!8m2!3d-7.8181175!4d110.4165465!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F11b6z063yv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ayam+Goreng+Gunung+Kidul/@-7.8252963,110.1675707,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7a5737232a0827:0x361665275e136806!8m2!3d-7.8181175!4d110.4165465!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFmZyaWVkX2NoaWNrZW5fdGFrZWF3YXngAQA!16s%2Fg%2F11b6z063yv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1142,25 +1120,24 @@
           <t>0819-0445-8676</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.8</v>
+        <v>-8.069266000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.069266000000001</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.656232</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakmi+Jawa+Bu+Sastro+Gunungkidul/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb757cdd10667:0xb1211a02318bbd0e!8m2!3d-8.0692661!4d110.6562318!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11v3gw0m1j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakmi+Jawa+Bu+Sastro+Gunungkidul/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb757cdd10667:0xb1211a02318bbd0e!8m2!3d-8.0692661!4d110.6562318!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBBWRpbmVy4AEA!16s%2Fg%2F11v3gw0m1j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1183,25 +1160,24 @@
           <t>0819-0445-8676</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>-7.991836</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.991836</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.638763</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GUJID+ndeso+resto/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb460e9bb49a1:0xad9e4f3e5bd748ca!8m2!3d-7.9918364!4d110.6387634!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11by_ly_jb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GUJID+ndeso+resto/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb460e9bb49a1:0xad9e4f3e5bd748ca!8m2!3d-7.9918364!4d110.6387634!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11by_ly_jb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1224,25 +1200,24 @@
           <t>0813-9272-2755</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.2</v>
+        <v>-7.996979</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.996979</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.65012</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Jirak/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb489d2bf180f:0xa4df880564af15cb!8m2!3d-7.9969788!4d110.6501204!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFnRyYWRpdGlvbmFsX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pzw2tk_v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Jirak/@-8.0692661,110.3678407,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7bb489d2bf180f:0xa4df880564af15cb!8m2!3d-7.9969788!4d110.6501204!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBFnRyYWRpdGlvbmFsX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F1pzw2tk_v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1265,25 +1240,24 @@
           <t>0813-9272-2755</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>-8.108661</v>
       </c>
       <c r="G22" t="n">
-        <v>-8.108661</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.467896</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rumah+Makan+Sea+Food+Lestari/@-8.1086611,110.179505,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baf76d3ad0315:0x59d729ede64edfb7!8m2!3d-8.1086611!4d110.4678961!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c5_v7g7c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rumah+Makan+Sea+Food+Lestari/@-8.1086611,110.179505,11z/data=!4m11!1m3!2m2!1sRestoran+Gunungkidul!6e5!3m6!1s0x2e7baf76d3ad0315:0x59d729ede64edfb7!8m2!3d-8.1086611!4d110.4678961!15sChRSZXN0b3JhbiBHdW51bmdraWR1bFoWIhRyZXN0b3JhbiBndW51bmdraWR1bJIBEnNlYWZvb2RfcmVzdGF1cmFudOABAA!16s%2Fg%2F11c5_v7g7c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1301,16 +1275,15 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Restoran+Kota+Yogyakarta/@-7.8053374,110.3684985,15z/data=!4m2!2m1!6e5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1333,25 +1306,24 @@
           <t>0857-4236-3844</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.5</v>
+        <v>-7.804354</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.804354</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.366774</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Wijilan+Bu+Hj.+Rini/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578560105b6f:0x26a8f977361fe38a!8m2!3d-7.8043545!4d110.3667744!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1hm6hjn15?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Wijilan+Bu+Hj.+Rini/@-7.8034971,110.3481831,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578560105b6f:0x26a8f977361fe38a!8m2!3d-7.8043545!4d110.3667744!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F1hm6hjn15?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>23 jam lalu</t>
         </is>
@@ -1378,25 +1350,24 @@
           <t>0813-9018-0097</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.4</v>
+        <v>-7.799085</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.799085</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.368203</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gado+Gado+Bu+Hadi/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578864c302df:0x42fc8c0dfa50f97a!8m2!3d-7.7990854!4d110.3682027!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1hc30mx3l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gado+Gado+Bu+Hadi/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578864c302df:0x42fc8c0dfa50f97a!8m2!3d-7.7990854!4d110.3682027!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgETamF2YW5lc2VfcmVzdGF1cmFudOABAA!16s%2Fg%2F1hc30mx3l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1423,25 +1394,24 @@
           <t>0813-9018-0097</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.802797</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.802797</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.365207</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SOTO+BATHOK+SOR+RINGIN/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57d1045ad51b:0x8e3610f5abb998b7!8m2!3d-7.8027966!4d110.3652068!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEPc290b19yZXN0YXVyYW504AEA!16s%2Fg%2F11n5w_nysw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SOTO+BATHOK+SOR+RINGIN/@-7.7985146,110.3462633,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57d1045ad51b:0x8e3610f5abb998b7!8m2!3d-7.8027966!4d110.3652068!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEPc290b19yZXN0YXVyYW504AEA!16s%2Fg%2F11n5w_nysw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1464,21 +1434,20 @@
           <t>0877-3892-0614</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
+      <c r="E27" t="n">
         <v>4.7</v>
       </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gudeg+Bu+is+asli+Wijilan/@-7.797017,110.3464456,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57733fa6f4d3:0x5ac63d78ae04b60b!8m2!3d-7.8043931!4d110.3666903!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11sv8vm5q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gudeg+Bu+is+asli+Wijilan/@-7.797017,110.3464456,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a57733fa6f4d3:0x5ac63d78ae04b60b!8m2!3d-7.8043931!4d110.3666903!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgEKcmVzdGF1cmFudOABAA!16s%2Fg%2F11sv8vm5q7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1501,25 +1470,24 @@
           <t>(0274) 414149</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>-7.803677</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.803677</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.368176</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Golden+Chicken/@-7.8036768,110.3501519,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5737853c3cdf:0xc4d245c3bf9e8fce!8m2!3d-7.8036768!4d110.3681763!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgESY2hpY2tlbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11g0gcc47h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Golden+Chicken/@-7.8036768,110.3501519,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5737853c3cdf:0xc4d245c3bf9e8fce!8m2!3d-7.8036768!4d110.3681763!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgESY2hpY2tlbl9yZXN0YXVyYW504AEA!16s%2Fg%2F11g0gcc47h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1538,25 +1506,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.3</v>
+        <v>-7.806079</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.806079</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.369514</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Nasi+Padang+Pak+Edi+%EA%A6%AB%EA%A6%B8%EA%A6%A9%EA%A6%83%EA%A6%A9%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%A3%EA%A6%81/@-7.8036768,110.3501519,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5784d5604a8f:0x21e6638824169722!8m2!3d-7.8060789!4d110.3695138!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGFkYW5nX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11dxbn8b64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Nasi+Padang+Pak+Edi+%EA%A6%AB%EA%A6%B8%EA%A6%A9%EA%A6%83%EA%A6%A9%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A5%EA%A6%A3%EA%A6%81/@-7.8036768,110.3501519,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a5784d5604a8f:0x21e6638824169722!8m2!3d-7.8060789!4d110.3695138!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERcGFkYW5nX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11dxbn8b64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1575,25 +1542,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>-7.805224</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.805224</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.365326</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Special+Bakmi+%26+Nasi+Goreng+Pak+Pele/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578fea2384d5:0x7398f15cc39bce6b!8m2!3d-7.8052242!4d110.3653261!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1pztkls24?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Special+Bakmi+%26+Nasi+Goreng+Pak+Pele/@-7.8078723,110.3498712,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a578fea2384d5:0x7398f15cc39bce6b!8m2!3d-7.8052242!4d110.3653261!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgELbm9vZGxlX3Nob3DgAQA!16s%2Fg%2F1pztkls24?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -1612,25 +1578,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.2</v>
+        <v>-7.761851</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.761851</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.398435</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Yogyakarta+Kitchen+by+Marriott/@-7.7618506,110.3804109,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a59a30f954011:0x97519fd73a122619!8m2!3d-7.7618506!4d110.3984353!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERYnVmZmV0X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gd6x4mlp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Yogyakarta+Kitchen+by+Marriott/@-7.7618506,110.3804109,15z/data=!4m11!1m3!2m2!1sRestoran+Kota+Yogyakarta!6e5!3m6!1s0x2e7a59a30f954011:0x97519fd73a122619!8m2!3d-7.7618506!4d110.3984353!15sChhSZXN0b3JhbiBLb3RhIFlvZ3lha2FydGFaGiIYcmVzdG9yYW4ga290YSB5b2d5YWthcnRhkgERYnVmZmV0X3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11gd6x4mlp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1657,25 +1622,24 @@
           <t>0877-2234-5101</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.6</v>
+        <v>-7.749541</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.749541</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.206065</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Menoreh+View/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1248bb0d5c9:0xa84f551f82a5e0d9!8m2!3d-7.7495409!4d110.2060647!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11llcv8yn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Menoreh+View/@-7.8663906,109.8810674,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af1248bb0d5c9:0xa84f551f82a5e0d9!8m2!3d-7.7495409!4d110.2060647!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBCnJlc3RhdXJhbnTgAQA!16s%2Fg%2F11llcv8yn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>19 jam lalu</t>
         </is>
@@ -1702,25 +1666,24 @@
           <t>0877-0033-9676</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.4</v>
+        <v>-7.745656</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.745656</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.206017</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GEBLEK+PARI+(Asli+%26+Pertama)/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af11478863d8d:0x7c90847fd3a40a64!8m2!3d-7.745656!4d110.2060165!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEnRvdXJpc3RfYXR0cmFjdGlvbuABAA!16s%2Fg%2F11f0xxrt3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GEBLEK+PARI+(Asli+%26+Pertama)/@-7.8962719,109.8930175,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7af11478863d8d:0x7c90847fd3a40a64!8m2!3d-7.745656!4d110.2060165!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEnRvdXJpc3RfYXR0cmFjdGlvbuABAA!16s%2Fg%2F11f0xxrt3h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>5 menit lalu</t>
         </is>
@@ -1739,25 +1702,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.7</v>
+        <v>-7.841998</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.841998</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.164935</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Soto+Gado-gado+%22NN%22/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae74d682a4d:0xb9546551fbb6c1db!8m2!3d-7.8419978!4d110.1649352!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEWJydW5jaF9yZXN0YXVyYW504AEA!16s%2Fg%2F11dxdh1g8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Soto+Gado-gado+%22NN%22/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae74d682a4d:0xb9546551fbb6c1db!8m2!3d-7.8419978!4d110.1649352!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEWJydW5jaF9yZXN0YXVyYW504AEA!16s%2Fg%2F11dxdh1g8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1780,25 +1742,24 @@
           <t>0857-0028-3455</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.8</v>
+        <v>-7.842258</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.842258</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.164912</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+DALAN+ANYAR+%22+CAPCAY,+SEAFOOD%26BAKMI%22/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae0b28af337:0xa03880baf74451c0!8m2!3d-7.8422575!4d110.1649124!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBWRpbmVy4AEA!16s%2Fg%2F11f39p2xt4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+DALAN+ANYAR+%22+CAPCAY,+SEAFOOD%26BAKMI%22/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afae0b28af337:0xa03880baf74451c0!8m2!3d-7.8422575!4d110.1649124!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBBWRpbmVy4AEA!16s%2Fg%2F11f39p2xt4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1817,21 +1778,20 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
+      <c r="E36" t="n">
         <v>4.5</v>
       </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Makan+Mbak+Giri/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7ae35f793cfd13:0x2519186363f3788a!8m2!3d-7.8911852!4d110.119624!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11f0_fglvj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1846,21 +1806,20 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
+      <c r="E37" t="n">
         <v>4.5</v>
       </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bakmi+%26+Seafood+Loncamatan/@-7.6619392,109.9172074,11z/data=!4m13!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m8!1s0x2e7afb2169eff3e9:0x395875984370240a!8m2!3d-7.8419996!4d110.1681132!9m1!1b1!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBC25vb2RsZV9zaG9w4AEA!16s%2Fg%2F11f5_l23d_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1874,16 +1833,15 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sop+ayam+pak+man+Klaten/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb0a40ef2353:0xe9b5479f34cf1d62!8m2!3d-7.8423445!4d110.1701442!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBD3NvdXBfcmVzdGF1cmFudOABAA!16s%2Fg%2F11lh4rc85p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sop+ayam+pak+man+Klaten/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afb0a40ef2353:0xe9b5479f34cf1d62!8m2!3d-7.8423445!4d110.1701442!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBD3NvdXBfcmVzdGF1cmFudOABAA!16s%2Fg%2F11lh4rc85p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1901,16 +1859,15 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Angkringan+%22AYM%22+Yu+Sum+Mak+e/@-7.6619392,109.9172074,11z/data=!4m13!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m8!1s0x2e7afade645a3d0d:0xcd7f86c9980c305!8m2!3d-7.843094!4d110.161612!9m1!1b1!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c611lhg1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1924,16 +1881,15 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Angkringan+%22AYM%22+Yu+Sum+Mak+e/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afade645a3d0d:0xcd7f86c9980c305!8m2!3d-7.843094!4d110.161612!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c611lhg1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Angkringan+%22AYM%22+Yu+Sum+Mak+e/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afade645a3d0d:0xcd7f86c9980c305!8m2!3d-7.843094!4d110.161612!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c611lhg1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1952,21 +1908,20 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
+      <c r="E41" t="n">
         <v>4.3</v>
       </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Angkringan+%22AYM%22+Yu+Sum+Mak+e/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afade645a3d0d:0xcd7f86c9980c305!8m2!3d-7.843094!4d110.161612!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBE2phdmFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11c611lhg1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1981,21 +1936,20 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+      <c r="E42" t="n">
         <v>4.3</v>
       </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Makan+Prasmanan+Kampung+SUPER/@-7.6619392,109.9172074,11z/data=!4m11!1m3!2m2!1sRestoran+Kulon+Progo!6e5!3m6!1s0x2e7afab003ecd297:0xb1d214e681184fec!8m2!3d-7.8172692!4d110.1517835!15sChRSZXN0b3JhbiBLdWxvbiBQcm9nb1oWIhRyZXN0b3JhbiBrdWxvbiBwcm9nb5IBEWJ1ZmZldF9yZXN0YXVyYW504AEA!16s%2Fg%2F11g8wc_p3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2009,16 +1963,15 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Restoran+Sleman/@-7.8053355,110.3375984,13z/data=!4m2!2m1!6e5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2041,25 +1994,24 @@
           <t>0817-556-666</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.7</v>
+        <v>-7.735968</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.735968</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.399104</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Sate+Ratu/@-7.7359684,110.3270057,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58f6f39bbbad:0xd9f42acc2dd08934!8m2!3d-7.7359684!4d110.3991035!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b81jfjk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Sate+Ratu/@-7.7359684,110.3270057,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a58f6f39bbbad:0xd9f42acc2dd08934!8m2!3d-7.7359684!4d110.3991035!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEQc2F0YXlfcmVzdGF1cmFudOABAA!16s%2Fg%2F11b81jfjk3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>50 menit lalu</t>
         </is>
@@ -2086,25 +2038,24 @@
           <t>0878-3467-8188</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.4</v>
+        <v>-7.735718</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.735718</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.399179</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Cimoll+Resto+-+Condongcatur/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5915a012dbf1:0x57c8d57c63d786dd!8m2!3d-7.7357184!4d110.399179!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEUc3VuZGFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11hcyv912y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Cimoll+Resto+-+Condongcatur/@-7.7401274,110.3038607,13z/data=!4m11!1m3!2m2!1sRestoran+Sleman!6e5!3m6!1s0x2e7a5915a012dbf1:0x57c8d57c63d786dd!8m2!3d-7.7357184!4d110.399179!15sCg9SZXN0b3JhbiBTbGVtYW5aESIPcmVzdG9yYW4gc2xlbWFukgEUc3VuZGFuZXNlX3Jlc3RhdXJhbnTgAQA!16s%2Fg%2F11hcyv912y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
